--- a/round bald datas/2020-2022 ordination.xlsx
+++ b/round bald datas/2020-2022 ordination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91A780-261D-4548-9B78-5072A9828B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABED9D2-6ECC-4D86-9D50-5B3509D432FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2022all" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="2022all" sheetId="9" r:id="rId7"/>
     <sheet name="2022envr" sheetId="4" r:id="rId8"/>
     <sheet name="2022vege" sheetId="6" r:id="rId9"/>
+    <sheet name="permanova vege" sheetId="20" r:id="rId10"/>
+    <sheet name="permanova envr" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="219">
   <si>
     <t>ASD</t>
   </si>
@@ -11190,6 +11192,6276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FABA5F-490D-4CAF-9556-F133DF47B5DD}">
+  <dimension ref="A1:N98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>71</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>56</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="1">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="1">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>62</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>74</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>83</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>72</v>
+      </c>
+      <c r="K30" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19</v>
+      </c>
+      <c r="F31" s="1">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="1">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="1">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>24</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="1">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1">
+        <v>68</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>69</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="1">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="1">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="1">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>35</v>
+      </c>
+      <c r="G42" s="1">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="1">
+        <v>74</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1">
+        <v>37</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>28</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="1">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>60</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="1">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="1">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1">
+        <v>28</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>82</v>
+      </c>
+      <c r="G49" s="1">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>53</v>
+      </c>
+      <c r="G50" s="1">
+        <v>23</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>22</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>51</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>13</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="1">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>17</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>77</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>90</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="1">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>39</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>22</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>6</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="1">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1">
+        <v>37</v>
+      </c>
+      <c r="G57" s="1">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1">
+        <v>35</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>27</v>
+      </c>
+      <c r="F58" s="1">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1">
+        <v>12</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>49</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="1">
+        <v>39</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>52</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="1">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>23</v>
+      </c>
+      <c r="G61" s="1">
+        <v>34</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="1">
+        <v>26</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1">
+        <v>41</v>
+      </c>
+      <c r="G62" s="1">
+        <v>11</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="1">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>66</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="1">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="1">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1">
+        <v>43</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>54</v>
+      </c>
+      <c r="G66" s="1">
+        <v>22</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="1">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>48</v>
+      </c>
+      <c r="F67" s="1">
+        <v>34</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="1">
+        <v>21</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>60</v>
+      </c>
+      <c r="F68" s="1">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1">
+        <v>17</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>77</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>46</v>
+      </c>
+      <c r="G70" s="1">
+        <v>9</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>70</v>
+      </c>
+      <c r="G71" s="1">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="1">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>39</v>
+      </c>
+      <c r="G72" s="1">
+        <v>40</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="1">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>9</v>
+      </c>
+      <c r="F73" s="1">
+        <v>78</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1">
+        <v>21</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>27</v>
+      </c>
+      <c r="F74" s="1">
+        <v>46</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>57</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="1">
+        <v>57</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>42</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="1">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>25</v>
+      </c>
+      <c r="F77" s="1">
+        <v>36</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="1">
+        <v>36</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>9</v>
+      </c>
+      <c r="F78" s="1">
+        <v>50</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="1">
+        <v>32</v>
+      </c>
+      <c r="C79" s="1">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>39</v>
+      </c>
+      <c r="F79" s="1">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="1">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>85</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>4</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="1">
+        <v>85</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1">
+        <v>31</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30</v>
+      </c>
+      <c r="G82" s="1">
+        <v>18</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="1">
+        <v>57</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>18</v>
+      </c>
+      <c r="G83" s="1">
+        <v>7</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="1">
+        <v>73</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>18</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="1">
+        <v>67</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>19</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="1">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>84</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>9</v>
+      </c>
+      <c r="F87" s="1">
+        <v>52</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>31</v>
+      </c>
+      <c r="G88" s="1">
+        <v>18</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>7</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="1">
+        <v>76</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4</v>
+      </c>
+      <c r="G89" s="1">
+        <v>18</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="1">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>14</v>
+      </c>
+      <c r="G90" s="1">
+        <v>54</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="1">
+        <v>36</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>34</v>
+      </c>
+      <c r="G91" s="1">
+        <v>16</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>13</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="1">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>17</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="1">
+        <v>73</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>5</v>
+      </c>
+      <c r="G93" s="1">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>34</v>
+      </c>
+      <c r="G94" s="1">
+        <v>30</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>4</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="1">
+        <v>51</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>24</v>
+      </c>
+      <c r="G95" s="1">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="1">
+        <v>54</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>40</v>
+      </c>
+      <c r="G96" s="1">
+        <v>6</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" s="1">
+        <v>23</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>74</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="1">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>39</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C23F33-0F8B-4DCF-945D-29513AF599F6}">
+  <dimension ref="A1:O98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>220</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>230</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>225</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>208</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>230</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>228</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="1">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>230</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>235</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>215</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>220</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>220</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>213</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>220</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>215</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>208</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>215</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>220</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>212</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>210</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>270</v>
+      </c>
+      <c r="D27" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>270</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>250</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>288</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>255</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>258</v>
+      </c>
+      <c r="D32" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>241</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>238</v>
+      </c>
+      <c r="D34" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>218</v>
+      </c>
+      <c r="D35" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>207</v>
+      </c>
+      <c r="D36" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <v>210</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2</v>
+      </c>
+      <c r="F37" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1">
+        <v>220</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="1">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>203</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2</v>
+      </c>
+      <c r="F39" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="1">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1">
+        <v>196</v>
+      </c>
+      <c r="D40" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1">
+        <v>183</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="1">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1">
+        <v>179</v>
+      </c>
+      <c r="D42" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2</v>
+      </c>
+      <c r="F42" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="1">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>199</v>
+      </c>
+      <c r="D43" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="E43" s="8">
+        <v>2</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>194</v>
+      </c>
+      <c r="D44" s="1">
+        <v>16</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2</v>
+      </c>
+      <c r="F44" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1">
+        <v>187</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2</v>
+      </c>
+      <c r="F45" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="1">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>310</v>
+      </c>
+      <c r="D46" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>317</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="E47" s="8">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="1">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1">
+        <v>335</v>
+      </c>
+      <c r="D48" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>282</v>
+      </c>
+      <c r="D49" s="1">
+        <v>14</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>304</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2</v>
+      </c>
+      <c r="F50" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>268</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2</v>
+      </c>
+      <c r="F51" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>273</v>
+      </c>
+      <c r="D52" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="1">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1">
+        <v>276</v>
+      </c>
+      <c r="D53" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="1">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>257</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="1">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1">
+        <v>260</v>
+      </c>
+      <c r="D55" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>2</v>
+      </c>
+      <c r="F55" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
+        <v>254</v>
+      </c>
+      <c r="D56" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="1">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>258</v>
+      </c>
+      <c r="D57" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2</v>
+      </c>
+      <c r="F57" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1">
+        <v>248</v>
+      </c>
+      <c r="D58" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2</v>
+      </c>
+      <c r="F58" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>240</v>
+      </c>
+      <c r="D59" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2</v>
+      </c>
+      <c r="F59" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="1">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1">
+        <v>267</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2</v>
+      </c>
+      <c r="F60" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>232</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9</v>
+      </c>
+      <c r="E61" s="8">
+        <v>2</v>
+      </c>
+      <c r="F61" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>243</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>249</v>
+      </c>
+      <c r="D63" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2</v>
+      </c>
+      <c r="F63" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>212</v>
+      </c>
+      <c r="D64" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E64" s="8">
+        <v>2</v>
+      </c>
+      <c r="F64" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>230</v>
+      </c>
+      <c r="D65" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="1">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1">
+        <v>265</v>
+      </c>
+      <c r="D66" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2</v>
+      </c>
+      <c r="F66" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="1">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1">
+        <v>230</v>
+      </c>
+      <c r="D67" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2</v>
+      </c>
+      <c r="F67" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="1">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1">
+        <v>243</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1">
+        <v>85</v>
+      </c>
+      <c r="D69" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+      <c r="F69" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44</v>
+      </c>
+      <c r="D70" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>41</v>
+      </c>
+      <c r="D71" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
+      </c>
+      <c r="F71" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1</v>
+      </c>
+      <c r="F72" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="1">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1">
+        <v>50</v>
+      </c>
+      <c r="D73" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1</v>
+      </c>
+      <c r="F73" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <v>35</v>
+      </c>
+      <c r="D74" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
+      <c r="F74" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="1">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <v>72</v>
+      </c>
+      <c r="D76" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="1">
+        <v>22</v>
+      </c>
+      <c r="C77" s="1">
+        <v>37</v>
+      </c>
+      <c r="D77" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="1">
+        <v>22</v>
+      </c>
+      <c r="C78" s="1">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="1">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1">
+        <v>49</v>
+      </c>
+      <c r="D79" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="1">
+        <v>19</v>
+      </c>
+      <c r="C80" s="1">
+        <v>18</v>
+      </c>
+      <c r="D80" s="1">
+        <v>12</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+      <c r="F80" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="1">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <v>60</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="1">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42</v>
+      </c>
+      <c r="D83" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+      <c r="F83" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="1">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1">
+        <v>62</v>
+      </c>
+      <c r="D84" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="E84" s="8">
+        <v>1</v>
+      </c>
+      <c r="F84" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="1">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1">
+        <v>55</v>
+      </c>
+      <c r="D85" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="E85" s="8">
+        <v>1</v>
+      </c>
+      <c r="F85" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="1">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1">
+        <v>32</v>
+      </c>
+      <c r="D86" s="1">
+        <v>8</v>
+      </c>
+      <c r="E86" s="8">
+        <v>1</v>
+      </c>
+      <c r="F86" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="1">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="E87" s="8">
+        <v>1</v>
+      </c>
+      <c r="F87" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>213</v>
+      </c>
+      <c r="D88" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="E88" s="8">
+        <v>1</v>
+      </c>
+      <c r="F88" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="1">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1">
+        <v>235</v>
+      </c>
+      <c r="D89" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="E89" s="8">
+        <v>1</v>
+      </c>
+      <c r="F89" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="1">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1">
+        <v>242</v>
+      </c>
+      <c r="D90" s="1">
+        <v>14</v>
+      </c>
+      <c r="E90" s="8">
+        <v>2</v>
+      </c>
+      <c r="F90" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="1">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1">
+        <v>201</v>
+      </c>
+      <c r="D91" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E91" s="8">
+        <v>2</v>
+      </c>
+      <c r="F91" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="1">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1">
+        <v>238</v>
+      </c>
+      <c r="D92" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="E92" s="8">
+        <v>2</v>
+      </c>
+      <c r="F92" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="1">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1">
+        <v>212</v>
+      </c>
+      <c r="D93" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2</v>
+      </c>
+      <c r="F93" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="1">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1">
+        <v>242</v>
+      </c>
+      <c r="D94" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="E94" s="8">
+        <v>2</v>
+      </c>
+      <c r="F94" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="1">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1">
+        <v>213</v>
+      </c>
+      <c r="D95" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="E95" s="8">
+        <v>2</v>
+      </c>
+      <c r="F95" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1">
+        <v>211</v>
+      </c>
+      <c r="D96" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E96" s="8">
+        <v>2</v>
+      </c>
+      <c r="F96" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" s="1">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1">
+        <v>240</v>
+      </c>
+      <c r="D97" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E97" s="8">
+        <v>2</v>
+      </c>
+      <c r="F97" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="1">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1">
+        <v>223</v>
+      </c>
+      <c r="D98" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E98" s="8">
+        <v>2</v>
+      </c>
+      <c r="F98" s="18">
+        <v>2022</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32778949-EFB7-46FA-9FF9-5F98BCA473CC}">
   <dimension ref="A1:P202"/>
@@ -18257,7 +24529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E23E8E-3B1C-4435-AF2C-42F8E7FE5D2E}">
   <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A202" sqref="A5:A202"/>
     </sheetView>
   </sheetViews>
@@ -46226,7 +52498,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>

--- a/round bald datas/2020-2022 ordination.xlsx
+++ b/round bald datas/2020-2022 ordination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABED9D2-6ECC-4D86-9D50-5B3509D432FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CC6C8-CDE9-42DB-8ABA-33D2E8C0F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2022all" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2022vege" sheetId="6" r:id="rId9"/>
     <sheet name="permanova vege" sheetId="20" r:id="rId10"/>
     <sheet name="permanova envr" sheetId="19" r:id="rId11"/>
+    <sheet name="NMS" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="224">
   <si>
     <t>ASD</t>
   </si>
@@ -704,6 +705,21 @@
   <si>
     <t>R4.32.22</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Axis1</t>
+  </si>
+  <si>
+    <t>Axis2</t>
+  </si>
 </sst>
 </file>
 
@@ -1131,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73059B84-E94A-49C5-9F2C-F572FCECE184}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U216" sqref="U216"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6251,7 +6267,7 @@
       <c r="E104" s="15">
         <v>2020</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104" s="8">
         <v>1</v>
       </c>
       <c r="G104" s="14">
@@ -6301,7 +6317,7 @@
       <c r="E105" s="15">
         <v>2020</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="8">
         <v>1</v>
       </c>
       <c r="G105" s="14">
@@ -6351,7 +6367,7 @@
       <c r="E106" s="15">
         <v>2020</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="8">
         <v>1</v>
       </c>
       <c r="G106" s="14">
@@ -6401,7 +6417,7 @@
       <c r="E107" s="15">
         <v>2020</v>
       </c>
-      <c r="F107" s="15">
+      <c r="F107" s="8">
         <v>1</v>
       </c>
       <c r="G107" s="14">
@@ -6451,7 +6467,7 @@
       <c r="E108" s="15">
         <v>2020</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F108" s="8">
         <v>1</v>
       </c>
       <c r="G108" s="14">
@@ -6501,7 +6517,7 @@
       <c r="E109" s="15">
         <v>2020</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109" s="8">
         <v>1</v>
       </c>
       <c r="G109" s="14">
@@ -6551,7 +6567,7 @@
       <c r="E110" s="15">
         <v>2020</v>
       </c>
-      <c r="F110" s="15">
+      <c r="F110" s="8">
         <v>1</v>
       </c>
       <c r="G110" s="14">
@@ -6601,7 +6617,7 @@
       <c r="E111" s="15">
         <v>2020</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F111" s="8">
         <v>1</v>
       </c>
       <c r="G111" s="14">
@@ -6651,7 +6667,7 @@
       <c r="E112" s="15">
         <v>2020</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F112" s="8">
         <v>1</v>
       </c>
       <c r="G112" s="14">
@@ -6701,7 +6717,7 @@
       <c r="E113" s="15">
         <v>2020</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F113" s="8">
         <v>1</v>
       </c>
       <c r="G113" s="14">
@@ -6751,7 +6767,7 @@
       <c r="E114" s="15">
         <v>2020</v>
       </c>
-      <c r="F114" s="15">
+      <c r="F114" s="8">
         <v>1</v>
       </c>
       <c r="G114" s="14">
@@ -6801,7 +6817,7 @@
       <c r="E115" s="15">
         <v>2020</v>
       </c>
-      <c r="F115" s="15">
+      <c r="F115" s="8">
         <v>1</v>
       </c>
       <c r="G115" s="14">
@@ -6851,8 +6867,8 @@
       <c r="E116" s="15">
         <v>2020</v>
       </c>
-      <c r="F116" s="15">
-        <v>1</v>
+      <c r="F116" s="8">
+        <v>2</v>
       </c>
       <c r="G116" s="14">
         <v>0</v>
@@ -6901,8 +6917,8 @@
       <c r="E117" s="15">
         <v>2020</v>
       </c>
-      <c r="F117" s="15">
-        <v>1</v>
+      <c r="F117" s="8">
+        <v>2</v>
       </c>
       <c r="G117" s="14">
         <v>4</v>
@@ -6951,8 +6967,8 @@
       <c r="E118" s="15">
         <v>2020</v>
       </c>
-      <c r="F118" s="15">
-        <v>1</v>
+      <c r="F118" s="8">
+        <v>2</v>
       </c>
       <c r="G118" s="14">
         <v>4</v>
@@ -7001,8 +7017,8 @@
       <c r="E119" s="15">
         <v>2020</v>
       </c>
-      <c r="F119" s="15">
-        <v>1</v>
+      <c r="F119" s="8">
+        <v>2</v>
       </c>
       <c r="G119" s="14">
         <v>2</v>
@@ -7051,8 +7067,8 @@
       <c r="E120" s="15">
         <v>2020</v>
       </c>
-      <c r="F120" s="15">
-        <v>1</v>
+      <c r="F120" s="8">
+        <v>2</v>
       </c>
       <c r="G120" s="14">
         <v>4</v>
@@ -7101,8 +7117,8 @@
       <c r="E121" s="15">
         <v>2020</v>
       </c>
-      <c r="F121" s="15">
-        <v>1</v>
+      <c r="F121" s="8">
+        <v>2</v>
       </c>
       <c r="G121" s="14">
         <v>0</v>
@@ -7151,8 +7167,8 @@
       <c r="E122" s="15">
         <v>2020</v>
       </c>
-      <c r="F122" s="15">
-        <v>1</v>
+      <c r="F122" s="8">
+        <v>2</v>
       </c>
       <c r="G122" s="14">
         <v>33</v>
@@ -7201,8 +7217,8 @@
       <c r="E123" s="15">
         <v>2020</v>
       </c>
-      <c r="F123" s="15">
-        <v>1</v>
+      <c r="F123" s="8">
+        <v>2</v>
       </c>
       <c r="G123" s="14">
         <v>30</v>
@@ -7251,8 +7267,8 @@
       <c r="E124" s="15">
         <v>2020</v>
       </c>
-      <c r="F124" s="15">
-        <v>1</v>
+      <c r="F124" s="8">
+        <v>2</v>
       </c>
       <c r="G124" s="14">
         <v>77</v>
@@ -7301,8 +7317,8 @@
       <c r="E125" s="15">
         <v>2020</v>
       </c>
-      <c r="F125" s="15">
-        <v>1</v>
+      <c r="F125" s="8">
+        <v>2</v>
       </c>
       <c r="G125" s="14">
         <v>22</v>
@@ -7351,7 +7367,7 @@
       <c r="E126" s="15">
         <v>2020</v>
       </c>
-      <c r="F126" s="15">
+      <c r="F126" s="8">
         <v>1</v>
       </c>
       <c r="G126" s="14">
@@ -7401,7 +7417,7 @@
       <c r="E127" s="15">
         <v>2020</v>
       </c>
-      <c r="F127" s="15">
+      <c r="F127" s="8">
         <v>1</v>
       </c>
       <c r="G127" s="14">
@@ -7451,7 +7467,7 @@
       <c r="E128" s="15">
         <v>2020</v>
       </c>
-      <c r="F128" s="15">
+      <c r="F128" s="8">
         <v>1</v>
       </c>
       <c r="G128" s="14">
@@ -7501,7 +7517,7 @@
       <c r="E129" s="15">
         <v>2020</v>
       </c>
-      <c r="F129" s="15">
+      <c r="F129" s="8">
         <v>1</v>
       </c>
       <c r="G129" s="14">
@@ -7551,7 +7567,7 @@
       <c r="E130" s="15">
         <v>2020</v>
       </c>
-      <c r="F130" s="15">
+      <c r="F130" s="8">
         <v>1</v>
       </c>
       <c r="G130" s="14">
@@ -7601,7 +7617,7 @@
       <c r="E131" s="15">
         <v>2020</v>
       </c>
-      <c r="F131" s="15">
+      <c r="F131" s="8">
         <v>1</v>
       </c>
       <c r="G131" s="14">
@@ -7651,7 +7667,7 @@
       <c r="E132" s="15">
         <v>2020</v>
       </c>
-      <c r="F132" s="15">
+      <c r="F132" s="8">
         <v>1</v>
       </c>
       <c r="G132" s="14">
@@ -7701,7 +7717,7 @@
       <c r="E133" s="15">
         <v>2020</v>
       </c>
-      <c r="F133" s="15">
+      <c r="F133" s="8">
         <v>1</v>
       </c>
       <c r="G133" s="14">
@@ -7751,7 +7767,7 @@
       <c r="E134" s="15">
         <v>2020</v>
       </c>
-      <c r="F134" s="15">
+      <c r="F134" s="8">
         <v>1</v>
       </c>
       <c r="G134" s="14">
@@ -7801,8 +7817,8 @@
       <c r="E135" s="15">
         <v>2020</v>
       </c>
-      <c r="F135" s="15">
-        <v>1</v>
+      <c r="F135" s="8">
+        <v>2</v>
       </c>
       <c r="G135" s="14">
         <v>19</v>
@@ -7851,8 +7867,8 @@
       <c r="E136" s="15">
         <v>2020</v>
       </c>
-      <c r="F136" s="15">
-        <v>1</v>
+      <c r="F136" s="8">
+        <v>2</v>
       </c>
       <c r="G136" s="14">
         <v>31</v>
@@ -7901,8 +7917,8 @@
       <c r="E137" s="15">
         <v>2020</v>
       </c>
-      <c r="F137" s="15">
-        <v>1</v>
+      <c r="F137" s="8">
+        <v>2</v>
       </c>
       <c r="G137" s="14">
         <v>5</v>
@@ -7951,8 +7967,8 @@
       <c r="E138" s="15">
         <v>2020</v>
       </c>
-      <c r="F138" s="15">
-        <v>1</v>
+      <c r="F138" s="8">
+        <v>2</v>
       </c>
       <c r="G138" s="14">
         <v>5</v>
@@ -8001,8 +8017,8 @@
       <c r="E139" s="15">
         <v>2020</v>
       </c>
-      <c r="F139" s="15">
-        <v>1</v>
+      <c r="F139" s="8">
+        <v>2</v>
       </c>
       <c r="G139" s="14">
         <v>58</v>
@@ -8051,8 +8067,8 @@
       <c r="E140" s="15">
         <v>2020</v>
       </c>
-      <c r="F140" s="15">
-        <v>1</v>
+      <c r="F140" s="8">
+        <v>2</v>
       </c>
       <c r="G140" s="14">
         <v>51</v>
@@ -8101,8 +8117,8 @@
       <c r="E141" s="15">
         <v>2020</v>
       </c>
-      <c r="F141" s="15">
-        <v>1</v>
+      <c r="F141" s="8">
+        <v>2</v>
       </c>
       <c r="G141" s="14">
         <v>35</v>
@@ -8151,8 +8167,8 @@
       <c r="E142" s="15">
         <v>2020</v>
       </c>
-      <c r="F142" s="15">
-        <v>1</v>
+      <c r="F142" s="8">
+        <v>2</v>
       </c>
       <c r="G142" s="14">
         <v>2</v>
@@ -8201,8 +8217,8 @@
       <c r="E143" s="15">
         <v>2020</v>
       </c>
-      <c r="F143" s="15">
-        <v>1</v>
+      <c r="F143" s="8">
+        <v>2</v>
       </c>
       <c r="G143" s="14">
         <v>20</v>
@@ -8251,8 +8267,8 @@
       <c r="E144" s="15">
         <v>2020</v>
       </c>
-      <c r="F144" s="15">
-        <v>1</v>
+      <c r="F144" s="8">
+        <v>2</v>
       </c>
       <c r="G144" s="14">
         <v>9</v>
@@ -8301,8 +8317,8 @@
       <c r="E145" s="15">
         <v>2020</v>
       </c>
-      <c r="F145" s="15">
-        <v>1</v>
+      <c r="F145" s="8">
+        <v>2</v>
       </c>
       <c r="G145" s="14">
         <v>34</v>
@@ -8351,7 +8367,7 @@
       <c r="E146" s="15">
         <v>2020</v>
       </c>
-      <c r="F146" s="15">
+      <c r="F146" s="8">
         <v>1</v>
       </c>
       <c r="G146" s="14">
@@ -8401,7 +8417,7 @@
       <c r="E147" s="15">
         <v>2020</v>
       </c>
-      <c r="F147" s="15">
+      <c r="F147" s="8">
         <v>1</v>
       </c>
       <c r="G147" s="14">
@@ -8451,7 +8467,7 @@
       <c r="E148" s="15">
         <v>2020</v>
       </c>
-      <c r="F148" s="15">
+      <c r="F148" s="8">
         <v>1</v>
       </c>
       <c r="G148" s="14">
@@ -8501,7 +8517,7 @@
       <c r="E149" s="15">
         <v>2020</v>
       </c>
-      <c r="F149" s="15">
+      <c r="F149" s="8">
         <v>1</v>
       </c>
       <c r="G149" s="14">
@@ -8551,8 +8567,8 @@
       <c r="E150" s="15">
         <v>2020</v>
       </c>
-      <c r="F150" s="15">
-        <v>1</v>
+      <c r="F150" s="8">
+        <v>2</v>
       </c>
       <c r="G150" s="14">
         <v>0</v>
@@ -8601,8 +8617,8 @@
       <c r="E151" s="15">
         <v>2020</v>
       </c>
-      <c r="F151" s="15">
-        <v>1</v>
+      <c r="F151" s="8">
+        <v>2</v>
       </c>
       <c r="G151" s="14">
         <v>0</v>
@@ -8651,7 +8667,7 @@
       <c r="E152" s="15">
         <v>2020</v>
       </c>
-      <c r="F152" s="15">
+      <c r="F152" s="8">
         <v>1</v>
       </c>
       <c r="G152" s="14">
@@ -8701,8 +8717,8 @@
       <c r="E153" s="15">
         <v>2020</v>
       </c>
-      <c r="F153" s="15">
-        <v>1</v>
+      <c r="F153" s="8">
+        <v>2</v>
       </c>
       <c r="G153" s="14">
         <v>2</v>
@@ -8751,8 +8767,8 @@
       <c r="E154" s="15">
         <v>2020</v>
       </c>
-      <c r="F154" s="15">
-        <v>1</v>
+      <c r="F154" s="8">
+        <v>2</v>
       </c>
       <c r="G154" s="14">
         <v>1</v>
@@ -8801,8 +8817,8 @@
       <c r="E155" s="15">
         <v>2020</v>
       </c>
-      <c r="F155" s="15">
-        <v>1</v>
+      <c r="F155" s="8">
+        <v>2</v>
       </c>
       <c r="G155" s="14">
         <v>0</v>
@@ -8851,8 +8867,8 @@
       <c r="E156" s="15">
         <v>2020</v>
       </c>
-      <c r="F156" s="15">
-        <v>1</v>
+      <c r="F156" s="8">
+        <v>2</v>
       </c>
       <c r="G156" s="14">
         <v>5</v>
@@ -8901,8 +8917,8 @@
       <c r="E157" s="15">
         <v>2020</v>
       </c>
-      <c r="F157" s="15">
-        <v>1</v>
+      <c r="F157" s="8">
+        <v>2</v>
       </c>
       <c r="G157" s="14">
         <v>23</v>
@@ -8951,8 +8967,8 @@
       <c r="E158" s="15">
         <v>2020</v>
       </c>
-      <c r="F158" s="15">
-        <v>1</v>
+      <c r="F158" s="8">
+        <v>2</v>
       </c>
       <c r="G158" s="14">
         <v>35</v>
@@ -9001,8 +9017,8 @@
       <c r="E159" s="15">
         <v>2020</v>
       </c>
-      <c r="F159" s="15">
-        <v>1</v>
+      <c r="F159" s="8">
+        <v>2</v>
       </c>
       <c r="G159" s="14">
         <v>48</v>
@@ -9051,8 +9067,8 @@
       <c r="E160" s="15">
         <v>2020</v>
       </c>
-      <c r="F160" s="15">
-        <v>1</v>
+      <c r="F160" s="8">
+        <v>2</v>
       </c>
       <c r="G160" s="14">
         <v>44</v>
@@ -9101,8 +9117,8 @@
       <c r="E161" s="15">
         <v>2020</v>
       </c>
-      <c r="F161" s="15">
-        <v>1</v>
+      <c r="F161" s="8">
+        <v>2</v>
       </c>
       <c r="G161" s="14">
         <v>6</v>
@@ -9151,8 +9167,8 @@
       <c r="E162" s="15">
         <v>2020</v>
       </c>
-      <c r="F162" s="15">
-        <v>1</v>
+      <c r="F162" s="8">
+        <v>2</v>
       </c>
       <c r="G162" s="14">
         <v>16</v>
@@ -9201,8 +9217,8 @@
       <c r="E163" s="15">
         <v>2020</v>
       </c>
-      <c r="F163" s="15">
-        <v>1</v>
+      <c r="F163" s="8">
+        <v>2</v>
       </c>
       <c r="G163" s="14">
         <v>34</v>
@@ -9251,8 +9267,8 @@
       <c r="E164" s="15">
         <v>2020</v>
       </c>
-      <c r="F164" s="15">
-        <v>1</v>
+      <c r="F164" s="8">
+        <v>2</v>
       </c>
       <c r="G164" s="14">
         <v>24</v>
@@ -9301,8 +9317,8 @@
       <c r="E165" s="15">
         <v>2020</v>
       </c>
-      <c r="F165" s="15">
-        <v>1</v>
+      <c r="F165" s="8">
+        <v>2</v>
       </c>
       <c r="G165" s="14">
         <v>40</v>
@@ -9351,8 +9367,8 @@
       <c r="E166" s="15">
         <v>2020</v>
       </c>
-      <c r="F166" s="15">
-        <v>1</v>
+      <c r="F166" s="8">
+        <v>2</v>
       </c>
       <c r="G166" s="14">
         <v>28</v>
@@ -9401,8 +9417,8 @@
       <c r="E167" s="15">
         <v>2020</v>
       </c>
-      <c r="F167" s="15">
-        <v>1</v>
+      <c r="F167" s="8">
+        <v>2</v>
       </c>
       <c r="G167" s="14">
         <v>24</v>
@@ -9451,8 +9467,8 @@
       <c r="E168" s="15">
         <v>2020</v>
       </c>
-      <c r="F168" s="15">
-        <v>1</v>
+      <c r="F168" s="8">
+        <v>2</v>
       </c>
       <c r="G168" s="14">
         <v>15</v>
@@ -9501,8 +9517,8 @@
       <c r="E169" s="15">
         <v>2020</v>
       </c>
-      <c r="F169" s="15">
-        <v>1</v>
+      <c r="F169" s="8">
+        <v>2</v>
       </c>
       <c r="G169" s="14">
         <v>15</v>
@@ -9551,8 +9567,8 @@
       <c r="E170" s="15">
         <v>2020</v>
       </c>
-      <c r="F170" s="15">
-        <v>1</v>
+      <c r="F170" s="8">
+        <v>2</v>
       </c>
       <c r="G170" s="14">
         <v>30</v>
@@ -9601,7 +9617,7 @@
       <c r="E171" s="15">
         <v>2020</v>
       </c>
-      <c r="F171" s="15">
+      <c r="F171" s="8">
         <v>1</v>
       </c>
       <c r="G171" s="14">
@@ -9651,7 +9667,7 @@
       <c r="E172" s="15">
         <v>2020</v>
       </c>
-      <c r="F172" s="15">
+      <c r="F172" s="8">
         <v>1</v>
       </c>
       <c r="G172" s="14">
@@ -9701,7 +9717,7 @@
       <c r="E173" s="15">
         <v>2020</v>
       </c>
-      <c r="F173" s="15">
+      <c r="F173" s="8">
         <v>1</v>
       </c>
       <c r="G173" s="14">
@@ -9751,7 +9767,7 @@
       <c r="E174" s="15">
         <v>2020</v>
       </c>
-      <c r="F174" s="15">
+      <c r="F174" s="8">
         <v>1</v>
       </c>
       <c r="G174" s="14">
@@ -9801,7 +9817,7 @@
       <c r="E175" s="15">
         <v>2020</v>
       </c>
-      <c r="F175" s="15">
+      <c r="F175" s="8">
         <v>1</v>
       </c>
       <c r="G175" s="14">
@@ -9851,7 +9867,7 @@
       <c r="E176" s="15">
         <v>2020</v>
       </c>
-      <c r="F176" s="15">
+      <c r="F176" s="8">
         <v>1</v>
       </c>
       <c r="G176" s="14">
@@ -9901,7 +9917,7 @@
       <c r="E177" s="15">
         <v>2020</v>
       </c>
-      <c r="F177" s="15">
+      <c r="F177" s="8">
         <v>1</v>
       </c>
       <c r="G177" s="14">
@@ -9951,7 +9967,7 @@
       <c r="E178" s="15">
         <v>2020</v>
       </c>
-      <c r="F178" s="15">
+      <c r="F178" s="8">
         <v>1</v>
       </c>
       <c r="G178" s="14">
@@ -10001,7 +10017,7 @@
       <c r="E179" s="15">
         <v>2020</v>
       </c>
-      <c r="F179" s="15">
+      <c r="F179" s="8">
         <v>1</v>
       </c>
       <c r="G179" s="14">
@@ -10051,7 +10067,7 @@
       <c r="E180" s="15">
         <v>2020</v>
       </c>
-      <c r="F180" s="15">
+      <c r="F180" s="8">
         <v>1</v>
       </c>
       <c r="G180" s="14">
@@ -10101,7 +10117,7 @@
       <c r="E181" s="15">
         <v>2020</v>
       </c>
-      <c r="F181" s="15">
+      <c r="F181" s="8">
         <v>1</v>
       </c>
       <c r="G181" s="14">
@@ -10151,7 +10167,7 @@
       <c r="E182" s="15">
         <v>2020</v>
       </c>
-      <c r="F182" s="15">
+      <c r="F182" s="8">
         <v>1</v>
       </c>
       <c r="G182" s="14">
@@ -10201,7 +10217,7 @@
       <c r="E183" s="15">
         <v>2020</v>
       </c>
-      <c r="F183" s="15">
+      <c r="F183" s="8">
         <v>1</v>
       </c>
       <c r="G183" s="14">
@@ -10251,7 +10267,7 @@
       <c r="E184" s="15">
         <v>2020</v>
       </c>
-      <c r="F184" s="15">
+      <c r="F184" s="8">
         <v>1</v>
       </c>
       <c r="G184" s="14">
@@ -10301,7 +10317,7 @@
       <c r="E185" s="15">
         <v>2020</v>
       </c>
-      <c r="F185" s="15">
+      <c r="F185" s="8">
         <v>1</v>
       </c>
       <c r="G185" s="14">
@@ -10351,7 +10367,7 @@
       <c r="E186" s="15">
         <v>2020</v>
       </c>
-      <c r="F186" s="15">
+      <c r="F186" s="8">
         <v>1</v>
       </c>
       <c r="G186" s="14">
@@ -10401,7 +10417,7 @@
       <c r="E187" s="15">
         <v>2020</v>
       </c>
-      <c r="F187" s="15">
+      <c r="F187" s="8">
         <v>1</v>
       </c>
       <c r="G187" s="14">
@@ -10451,7 +10467,7 @@
       <c r="E188" s="15">
         <v>2020</v>
       </c>
-      <c r="F188" s="15">
+      <c r="F188" s="8">
         <v>1</v>
       </c>
       <c r="G188" s="14">
@@ -10501,7 +10517,7 @@
       <c r="E189" s="15">
         <v>2020</v>
       </c>
-      <c r="F189" s="15">
+      <c r="F189" s="8">
         <v>1</v>
       </c>
       <c r="G189" s="14">
@@ -10551,7 +10567,7 @@
       <c r="E190" s="15">
         <v>2020</v>
       </c>
-      <c r="F190" s="15">
+      <c r="F190" s="8">
         <v>1</v>
       </c>
       <c r="G190" s="14">
@@ -10601,7 +10617,7 @@
       <c r="E191" s="15">
         <v>2020</v>
       </c>
-      <c r="F191" s="15">
+      <c r="F191" s="8">
         <v>1</v>
       </c>
       <c r="G191" s="14">
@@ -10651,8 +10667,8 @@
       <c r="E192" s="15">
         <v>2020</v>
       </c>
-      <c r="F192" s="15">
-        <v>1</v>
+      <c r="F192" s="8">
+        <v>2</v>
       </c>
       <c r="G192" s="14">
         <v>29</v>
@@ -10701,8 +10717,8 @@
       <c r="E193" s="15">
         <v>2020</v>
       </c>
-      <c r="F193" s="15">
-        <v>1</v>
+      <c r="F193" s="8">
+        <v>2</v>
       </c>
       <c r="G193" s="14">
         <v>15</v>
@@ -10751,8 +10767,8 @@
       <c r="E194" s="15">
         <v>2020</v>
       </c>
-      <c r="F194" s="15">
-        <v>1</v>
+      <c r="F194" s="8">
+        <v>2</v>
       </c>
       <c r="G194" s="14">
         <v>19</v>
@@ -10801,8 +10817,8 @@
       <c r="E195" s="15">
         <v>2020</v>
       </c>
-      <c r="F195" s="15">
-        <v>1</v>
+      <c r="F195" s="8">
+        <v>2</v>
       </c>
       <c r="G195" s="14">
         <v>37</v>
@@ -10851,8 +10867,8 @@
       <c r="E196" s="15">
         <v>2020</v>
       </c>
-      <c r="F196" s="15">
-        <v>1</v>
+      <c r="F196" s="8">
+        <v>2</v>
       </c>
       <c r="G196" s="14">
         <v>28</v>
@@ -10901,8 +10917,8 @@
       <c r="E197" s="15">
         <v>2020</v>
       </c>
-      <c r="F197" s="15">
-        <v>1</v>
+      <c r="F197" s="8">
+        <v>2</v>
       </c>
       <c r="G197" s="14">
         <v>25</v>
@@ -10951,8 +10967,8 @@
       <c r="E198" s="15">
         <v>2020</v>
       </c>
-      <c r="F198" s="15">
-        <v>1</v>
+      <c r="F198" s="8">
+        <v>2</v>
       </c>
       <c r="G198" s="14">
         <v>39</v>
@@ -11001,8 +11017,8 @@
       <c r="E199" s="15">
         <v>2020</v>
       </c>
-      <c r="F199" s="15">
-        <v>1</v>
+      <c r="F199" s="8">
+        <v>2</v>
       </c>
       <c r="G199" s="14">
         <v>41</v>
@@ -11051,8 +11067,8 @@
       <c r="E200" s="15">
         <v>2020</v>
       </c>
-      <c r="F200" s="15">
-        <v>1</v>
+      <c r="F200" s="8">
+        <v>2</v>
       </c>
       <c r="G200" s="14">
         <v>58</v>
@@ -11101,8 +11117,8 @@
       <c r="E201" s="15">
         <v>2020</v>
       </c>
-      <c r="F201" s="15">
-        <v>1</v>
+      <c r="F201" s="8">
+        <v>2</v>
       </c>
       <c r="G201" s="14">
         <v>14</v>
@@ -11151,8 +11167,8 @@
       <c r="E202" s="15">
         <v>2020</v>
       </c>
-      <c r="F202" s="15">
-        <v>1</v>
+      <c r="F202" s="8">
+        <v>2</v>
       </c>
       <c r="G202" s="14">
         <v>90</v>
@@ -11196,7 +11212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FABA5F-490D-4CAF-9556-F133DF47B5DD}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17456,6 +17472,3387 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBD57A1-069A-4664-B229-E6B75F54848A}">
+  <dimension ref="A1:E198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <v>-0.35375000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.65473999999999999</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>-1.5874699999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.91834000000000005</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4">
+        <v>-1.8686400000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.10518</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>-1.9471000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.40131</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>-1.39771</v>
+      </c>
+      <c r="C6">
+        <v>-0.31374999999999997</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>-2.02216</v>
+      </c>
+      <c r="C7">
+        <v>0.32318000000000002</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>-1.9673400000000001</v>
+      </c>
+      <c r="C8">
+        <v>-0.87039999999999995</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>-2.1617999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.26157999999999998</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>-1.1995899999999999</v>
+      </c>
+      <c r="C10">
+        <v>-1.17211</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>-0.54774</v>
+      </c>
+      <c r="C11">
+        <v>0.71948999999999996</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>-9.1439999999999994E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.63165000000000004</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>-0.15715999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.32327</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0.76953000000000005</v>
+      </c>
+      <c r="C14">
+        <v>-0.25785000000000002</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>0.80428999999999995</v>
+      </c>
+      <c r="C15">
+        <v>-5.604E-2</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>1.9149700000000001</v>
+      </c>
+      <c r="C16">
+        <v>-0.85621999999999998</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>0.33687</v>
+      </c>
+      <c r="C17">
+        <v>-0.30292999999999998</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18">
+        <v>6.2859999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.21894</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19">
+        <v>0.35528999999999999</v>
+      </c>
+      <c r="C19">
+        <v>-7.2959999999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>2022</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="C20">
+        <v>-0.24687999999999999</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21">
+        <v>0.58531</v>
+      </c>
+      <c r="C21">
+        <v>-0.46708</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22">
+        <v>0.42419000000000001</v>
+      </c>
+      <c r="C22">
+        <v>-0.28089999999999998</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23">
+        <v>0.23855000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.2089</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.38228000000000001</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25">
+        <v>0.13067000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.55955999999999995</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <v>-1.2772399999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.76553000000000004</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27">
+        <v>-0.19356000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.16034999999999999</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>8.4930000000000005E-2</v>
+      </c>
+      <c r="C28">
+        <v>-0.38534000000000002</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29">
+        <v>0.55950999999999995</v>
+      </c>
+      <c r="C29">
+        <v>-0.40190999999999999</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30">
+        <v>0.26107999999999998</v>
+      </c>
+      <c r="C30">
+        <v>-0.57504999999999995</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>0.34577000000000002</v>
+      </c>
+      <c r="C31">
+        <v>-0.41920000000000002</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32">
+        <v>3.091E-2</v>
+      </c>
+      <c r="C32">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33">
+        <v>0.1115</v>
+      </c>
+      <c r="C33">
+        <v>-1.1322700000000001</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34">
+        <v>-0.12656999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.43953999999999999</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35">
+        <v>-0.12895000000000001</v>
+      </c>
+      <c r="C35">
+        <v>-1.0471600000000001</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36">
+        <v>0.65683000000000002</v>
+      </c>
+      <c r="C36">
+        <v>-0.80086000000000002</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C37">
+        <v>-0.58792</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38">
+        <v>0.27259</v>
+      </c>
+      <c r="C38">
+        <v>0.29128999999999999</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39">
+        <v>0.52068000000000003</v>
+      </c>
+      <c r="C39">
+        <v>0.28273999999999999</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40">
+        <v>0.78386999999999996</v>
+      </c>
+      <c r="C40">
+        <v>-0.50241999999999998</v>
+      </c>
+      <c r="D40">
+        <v>2022</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41">
+        <v>0.77492000000000005</v>
+      </c>
+      <c r="C41">
+        <v>0.1615</v>
+      </c>
+      <c r="D41">
+        <v>2022</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42">
+        <v>0.52785000000000004</v>
+      </c>
+      <c r="C42">
+        <v>-0.33942</v>
+      </c>
+      <c r="D42">
+        <v>2022</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43">
+        <v>0.25739000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.17874000000000001</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44">
+        <v>-4.3479999999999998E-2</v>
+      </c>
+      <c r="C44">
+        <v>-0.62746000000000002</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45">
+        <v>0.12377000000000001</v>
+      </c>
+      <c r="C45">
+        <v>-0.27006999999999998</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46">
+        <v>0.16377</v>
+      </c>
+      <c r="C46">
+        <v>0.79732999999999998</v>
+      </c>
+      <c r="D46">
+        <v>2022</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47">
+        <v>-0.24115</v>
+      </c>
+      <c r="C47">
+        <v>0.57989000000000002</v>
+      </c>
+      <c r="D47">
+        <v>2022</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48">
+        <v>-0.29958000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.64668000000000003</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49">
+        <v>-0.66664999999999996</v>
+      </c>
+      <c r="C49">
+        <v>-0.54415999999999998</v>
+      </c>
+      <c r="D49">
+        <v>2022</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50">
+        <v>1.8089999999999998E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.55972</v>
+      </c>
+      <c r="D50">
+        <v>2022</v>
+      </c>
+      <c r="E50" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51">
+        <v>0.11323</v>
+      </c>
+      <c r="C51">
+        <v>0.89129000000000003</v>
+      </c>
+      <c r="D51">
+        <v>2022</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52">
+        <v>-6.1420000000000002E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.11686000000000001</v>
+      </c>
+      <c r="D52">
+        <v>2022</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53">
+        <v>1.159E-2</v>
+      </c>
+      <c r="C53">
+        <v>-8.1839999999999996E-2</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54">
+        <v>0.63007000000000002</v>
+      </c>
+      <c r="C54">
+        <v>-0.74124000000000001</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55">
+        <v>0.17372000000000001</v>
+      </c>
+      <c r="C55">
+        <v>-0.11617</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56">
+        <v>0.16661000000000001</v>
+      </c>
+      <c r="C56">
+        <v>-0.43675999999999998</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57">
+        <v>0.20316999999999999</v>
+      </c>
+      <c r="C57">
+        <v>-0.99363000000000001</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58">
+        <v>0.28786</v>
+      </c>
+      <c r="C58">
+        <v>0.10542</v>
+      </c>
+      <c r="D58">
+        <v>2022</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59">
+        <v>0.65171000000000001</v>
+      </c>
+      <c r="C59">
+        <v>-0.12463</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60">
+        <v>0.1346</v>
+      </c>
+      <c r="C60">
+        <v>-7.4940000000000007E-2</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61">
+        <v>0.16511999999999999</v>
+      </c>
+      <c r="C61">
+        <v>-1.2099599999999999</v>
+      </c>
+      <c r="D61">
+        <v>2022</v>
+      </c>
+      <c r="E61" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62">
+        <v>0.57035999999999998</v>
+      </c>
+      <c r="C62">
+        <v>-0.57084999999999997</v>
+      </c>
+      <c r="D62">
+        <v>2022</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63">
+        <v>0.21118999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.26924999999999999</v>
+      </c>
+      <c r="D63">
+        <v>2022</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64">
+        <v>0.15636</v>
+      </c>
+      <c r="C64">
+        <v>-0.11176999999999999</v>
+      </c>
+      <c r="D64">
+        <v>2022</v>
+      </c>
+      <c r="E64" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65">
+        <v>0.31696000000000002</v>
+      </c>
+      <c r="C65">
+        <v>0.32407999999999998</v>
+      </c>
+      <c r="D65">
+        <v>2022</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66">
+        <v>-0.14177999999999999</v>
+      </c>
+      <c r="C66">
+        <v>-0.35510999999999998</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67">
+        <v>-6.9839999999999999E-2</v>
+      </c>
+      <c r="C67">
+        <v>-0.72604999999999997</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68">
+        <v>0.21961</v>
+      </c>
+      <c r="C68">
+        <v>0.49539</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69">
+        <v>0.36008000000000001</v>
+      </c>
+      <c r="C69">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70">
+        <v>0.20938999999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.42454999999999998</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71">
+        <v>0.63602000000000003</v>
+      </c>
+      <c r="C71">
+        <v>0.27224999999999999</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72">
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="C72">
+        <v>0.51890999999999998</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+      <c r="E72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73">
+        <v>3.6240000000000001E-2</v>
+      </c>
+      <c r="C73">
+        <v>-3.0460000000000001E-2</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74">
+        <v>0.29957</v>
+      </c>
+      <c r="C74">
+        <v>0.15448000000000001</v>
+      </c>
+      <c r="D74">
+        <v>2022</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75">
+        <v>0.40744999999999998</v>
+      </c>
+      <c r="C75">
+        <v>-8.6830000000000004E-2</v>
+      </c>
+      <c r="D75">
+        <v>2022</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76">
+        <v>-5.6189999999999997E-2</v>
+      </c>
+      <c r="C76">
+        <v>-0.18998999999999999</v>
+      </c>
+      <c r="D76">
+        <v>2022</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77">
+        <v>0.22764999999999999</v>
+      </c>
+      <c r="C77">
+        <v>5.3220000000000003E-2</v>
+      </c>
+      <c r="D77">
+        <v>2022</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78">
+        <v>9.4990000000000005E-2</v>
+      </c>
+      <c r="C78">
+        <v>-0.72394999999999998</v>
+      </c>
+      <c r="D78">
+        <v>2022</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79">
+        <v>-0.29782999999999998</v>
+      </c>
+      <c r="C79">
+        <v>-1.43221</v>
+      </c>
+      <c r="D79">
+        <v>2022</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80">
+        <v>0.69481000000000004</v>
+      </c>
+      <c r="C80">
+        <v>-0.72411000000000003</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81">
+        <v>0.55723</v>
+      </c>
+      <c r="C81">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="D81">
+        <v>2022</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82">
+        <v>0.56991000000000003</v>
+      </c>
+      <c r="C82">
+        <v>-0.38958999999999999</v>
+      </c>
+      <c r="D82">
+        <v>2022</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83">
+        <v>0.67911999999999995</v>
+      </c>
+      <c r="C83">
+        <v>-0.47408</v>
+      </c>
+      <c r="D83">
+        <v>2022</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84">
+        <v>0.55273000000000005</v>
+      </c>
+      <c r="C84">
+        <v>-0.46779999999999999</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+      <c r="E84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85">
+        <v>-0.15781999999999999</v>
+      </c>
+      <c r="C85">
+        <v>-1.3951</v>
+      </c>
+      <c r="D85">
+        <v>2022</v>
+      </c>
+      <c r="E85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86">
+        <v>0.19896</v>
+      </c>
+      <c r="C86">
+        <v>0.10953</v>
+      </c>
+      <c r="D86">
+        <v>2022</v>
+      </c>
+      <c r="E86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87">
+        <v>0.42042000000000002</v>
+      </c>
+      <c r="C87">
+        <v>-0.14951999999999999</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+      <c r="E87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88">
+        <v>0.79718999999999995</v>
+      </c>
+      <c r="C88">
+        <v>-0.73014999999999997</v>
+      </c>
+      <c r="D88">
+        <v>2022</v>
+      </c>
+      <c r="E88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89">
+        <v>0.93998999999999999</v>
+      </c>
+      <c r="C89">
+        <v>-0.14934</v>
+      </c>
+      <c r="D89">
+        <v>2022</v>
+      </c>
+      <c r="E89" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90">
+        <v>0.23919000000000001</v>
+      </c>
+      <c r="C90">
+        <v>-0.10063</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+      <c r="E90" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91">
+        <v>0.67840999999999996</v>
+      </c>
+      <c r="C91">
+        <v>-0.70470999999999995</v>
+      </c>
+      <c r="D91">
+        <v>2022</v>
+      </c>
+      <c r="E91" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92">
+        <v>0.40788999999999997</v>
+      </c>
+      <c r="C92">
+        <v>-0.10067</v>
+      </c>
+      <c r="D92">
+        <v>2022</v>
+      </c>
+      <c r="E92" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93">
+        <v>0.65676000000000001</v>
+      </c>
+      <c r="C93">
+        <v>-0.23723</v>
+      </c>
+      <c r="D93">
+        <v>2022</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94">
+        <v>0.89075000000000004</v>
+      </c>
+      <c r="C94">
+        <v>-0.65969999999999995</v>
+      </c>
+      <c r="D94">
+        <v>2022</v>
+      </c>
+      <c r="E94" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95">
+        <v>0.52063999999999999</v>
+      </c>
+      <c r="C95">
+        <v>5.4640000000000001E-2</v>
+      </c>
+      <c r="D95">
+        <v>2022</v>
+      </c>
+      <c r="E95" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96">
+        <v>0.47732999999999998</v>
+      </c>
+      <c r="C96">
+        <v>-0.28788000000000002</v>
+      </c>
+      <c r="D96">
+        <v>2022</v>
+      </c>
+      <c r="E96" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97">
+        <v>0.46755000000000002</v>
+      </c>
+      <c r="C97">
+        <v>-7.0760000000000003E-2</v>
+      </c>
+      <c r="D97">
+        <v>2022</v>
+      </c>
+      <c r="E97" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98">
+        <v>0.17124</v>
+      </c>
+      <c r="C98">
+        <v>0.38977000000000001</v>
+      </c>
+      <c r="D98">
+        <v>2022</v>
+      </c>
+      <c r="E98" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99">
+        <v>0.48000999999999999</v>
+      </c>
+      <c r="C99">
+        <v>-0.13275999999999999</v>
+      </c>
+      <c r="D99">
+        <v>2022</v>
+      </c>
+      <c r="E99" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>-1.15476</v>
+      </c>
+      <c r="C100">
+        <v>0.23851</v>
+      </c>
+      <c r="D100">
+        <v>2020</v>
+      </c>
+      <c r="E100" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>-1.8545799999999999</v>
+      </c>
+      <c r="C101">
+        <v>-1.1882999999999999</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102">
+        <v>-1.9950300000000001</v>
+      </c>
+      <c r="C102">
+        <v>0.51482000000000006</v>
+      </c>
+      <c r="D102">
+        <v>2020</v>
+      </c>
+      <c r="E102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103">
+        <v>-1.8545400000000001</v>
+      </c>
+      <c r="C103">
+        <v>-1.1883699999999999</v>
+      </c>
+      <c r="D103">
+        <v>2020</v>
+      </c>
+      <c r="E103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104">
+        <v>-1.92126</v>
+      </c>
+      <c r="C104">
+        <v>0.63251000000000002</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105">
+        <v>-1.7474000000000001</v>
+      </c>
+      <c r="C105">
+        <v>-0.13955999999999999</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106">
+        <v>-5.6540600000000003</v>
+      </c>
+      <c r="C106">
+        <v>4.539E-2</v>
+      </c>
+      <c r="D106">
+        <v>2020</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107">
+        <v>-2.00034</v>
+      </c>
+      <c r="C107">
+        <v>0.11837</v>
+      </c>
+      <c r="D107">
+        <v>2020</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>-1.95878</v>
+      </c>
+      <c r="C108">
+        <v>-5.3010000000000002E-2</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>-2.10853</v>
+      </c>
+      <c r="C109">
+        <v>-0.12389</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110">
+        <v>-1.8545199999999999</v>
+      </c>
+      <c r="C110">
+        <v>-1.18845</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111">
+        <v>-1.50278</v>
+      </c>
+      <c r="C111">
+        <v>0.96196000000000004</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="C112">
+        <v>0.93527000000000005</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <v>0.10434</v>
+      </c>
+      <c r="C113">
+        <v>0.85697999999999996</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114">
+        <v>-2.409E-2</v>
+      </c>
+      <c r="C114">
+        <v>0.59916999999999998</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115">
+        <v>0.72941999999999996</v>
+      </c>
+      <c r="C115">
+        <v>0.91481000000000001</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116">
+        <v>1.2838499999999999</v>
+      </c>
+      <c r="C116">
+        <v>0.94127000000000005</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>0.22963</v>
+      </c>
+      <c r="C117">
+        <v>1.0281899999999999</v>
+      </c>
+      <c r="D117">
+        <v>2020</v>
+      </c>
+      <c r="E117" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="C118">
+        <v>0.19525999999999999</v>
+      </c>
+      <c r="D118">
+        <v>2020</v>
+      </c>
+      <c r="E118" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119">
+        <v>0.21046000000000001</v>
+      </c>
+      <c r="C119">
+        <v>0.13772000000000001</v>
+      </c>
+      <c r="D119">
+        <v>2020</v>
+      </c>
+      <c r="E119" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120">
+        <v>0.60407999999999995</v>
+      </c>
+      <c r="C120">
+        <v>-0.58835000000000004</v>
+      </c>
+      <c r="D120">
+        <v>2020</v>
+      </c>
+      <c r="E120" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121">
+        <v>1.3048500000000001</v>
+      </c>
+      <c r="C121">
+        <v>-0.10329000000000001</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122">
+        <v>0.49564999999999998</v>
+      </c>
+      <c r="C122">
+        <v>0.13458000000000001</v>
+      </c>
+      <c r="D122">
+        <v>2020</v>
+      </c>
+      <c r="E122" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123">
+        <v>0.36842999999999998</v>
+      </c>
+      <c r="C123">
+        <v>6.9699999999999996E-3</v>
+      </c>
+      <c r="D123">
+        <v>2020</v>
+      </c>
+      <c r="E123" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124">
+        <v>-0.84140999999999999</v>
+      </c>
+      <c r="C124">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="D124">
+        <v>2020</v>
+      </c>
+      <c r="E124" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>9.1969999999999996E-2</v>
+      </c>
+      <c r="C125">
+        <v>0.79854999999999998</v>
+      </c>
+      <c r="D125">
+        <v>2020</v>
+      </c>
+      <c r="E125" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126">
+        <v>-0.32674999999999998</v>
+      </c>
+      <c r="C126">
+        <v>0.50814000000000004</v>
+      </c>
+      <c r="D126">
+        <v>2020</v>
+      </c>
+      <c r="E126" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C127">
+        <v>-0.42637000000000003</v>
+      </c>
+      <c r="D127">
+        <v>2020</v>
+      </c>
+      <c r="E127" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128">
+        <v>0.24897</v>
+      </c>
+      <c r="C128">
+        <v>0.26704</v>
+      </c>
+      <c r="D128">
+        <v>2020</v>
+      </c>
+      <c r="E128" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129">
+        <v>-0.17177000000000001</v>
+      </c>
+      <c r="C129">
+        <v>-0.87451000000000001</v>
+      </c>
+      <c r="D129">
+        <v>2020</v>
+      </c>
+      <c r="E129" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130">
+        <v>0.26013999999999998</v>
+      </c>
+      <c r="C130">
+        <v>-0.17707000000000001</v>
+      </c>
+      <c r="D130">
+        <v>2020</v>
+      </c>
+      <c r="E130" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131">
+        <v>-1.916E-2</v>
+      </c>
+      <c r="C131">
+        <v>0.25074000000000002</v>
+      </c>
+      <c r="D131">
+        <v>2020</v>
+      </c>
+      <c r="E131" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132">
+        <v>0.17177999999999999</v>
+      </c>
+      <c r="C132">
+        <v>9.1770000000000004E-2</v>
+      </c>
+      <c r="D132">
+        <v>2020</v>
+      </c>
+      <c r="E132" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133">
+        <v>-0.28283999999999998</v>
+      </c>
+      <c r="C133">
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="D133">
+        <v>2020</v>
+      </c>
+      <c r="E133" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134">
+        <v>-0.82747000000000004</v>
+      </c>
+      <c r="C134">
+        <v>-0.71016000000000001</v>
+      </c>
+      <c r="D134">
+        <v>2020</v>
+      </c>
+      <c r="E134" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135">
+        <v>0.32323000000000002</v>
+      </c>
+      <c r="C135">
+        <v>-0.80054999999999998</v>
+      </c>
+      <c r="D135">
+        <v>2020</v>
+      </c>
+      <c r="E135" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136">
+        <v>0.33093</v>
+      </c>
+      <c r="C136">
+        <v>-0.13086</v>
+      </c>
+      <c r="D136">
+        <v>2020</v>
+      </c>
+      <c r="E136" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137">
+        <v>0.31631999999999999</v>
+      </c>
+      <c r="C137">
+        <v>0.19520999999999999</v>
+      </c>
+      <c r="D137">
+        <v>2020</v>
+      </c>
+      <c r="E137" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138">
+        <v>2.2210000000000001E-2</v>
+      </c>
+      <c r="C138">
+        <v>0.76744000000000001</v>
+      </c>
+      <c r="D138">
+        <v>2020</v>
+      </c>
+      <c r="E138" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139">
+        <v>-0.49024000000000001</v>
+      </c>
+      <c r="C139">
+        <v>-3.4009999999999999E-2</v>
+      </c>
+      <c r="D139">
+        <v>2020</v>
+      </c>
+      <c r="E139" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140">
+        <v>-0.31120999999999999</v>
+      </c>
+      <c r="C140">
+        <v>-1.14836</v>
+      </c>
+      <c r="D140">
+        <v>2020</v>
+      </c>
+      <c r="E140" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141">
+        <v>0.27916999999999997</v>
+      </c>
+      <c r="C141">
+        <v>0.23272999999999999</v>
+      </c>
+      <c r="D141">
+        <v>2020</v>
+      </c>
+      <c r="E141" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142">
+        <v>-4.4970000000000003E-2</v>
+      </c>
+      <c r="C142">
+        <v>0.16753000000000001</v>
+      </c>
+      <c r="D142">
+        <v>2020</v>
+      </c>
+      <c r="E142" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143">
+        <v>7.9210000000000003E-2</v>
+      </c>
+      <c r="C143">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D143">
+        <v>2020</v>
+      </c>
+      <c r="E143" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144">
+        <v>4.768E-2</v>
+      </c>
+      <c r="C144">
+        <v>0.18561</v>
+      </c>
+      <c r="D144">
+        <v>2020</v>
+      </c>
+      <c r="E144" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145">
+        <v>6.54E-2</v>
+      </c>
+      <c r="C145">
+        <v>0.84762000000000004</v>
+      </c>
+      <c r="D145">
+        <v>2020</v>
+      </c>
+      <c r="E145" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146">
+        <v>0.21839</v>
+      </c>
+      <c r="C146">
+        <v>0.8569</v>
+      </c>
+      <c r="D146">
+        <v>2020</v>
+      </c>
+      <c r="E146" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147">
+        <v>0.23874000000000001</v>
+      </c>
+      <c r="C147">
+        <v>0.81337000000000004</v>
+      </c>
+      <c r="D147">
+        <v>2020</v>
+      </c>
+      <c r="E147" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148">
+        <v>0.1227</v>
+      </c>
+      <c r="C148">
+        <v>0.91005000000000003</v>
+      </c>
+      <c r="D148">
+        <v>2020</v>
+      </c>
+      <c r="E148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149">
+        <v>0.11922000000000001</v>
+      </c>
+      <c r="C149">
+        <v>0.87971999999999995</v>
+      </c>
+      <c r="D149">
+        <v>2020</v>
+      </c>
+      <c r="E149" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150">
+        <v>6.9300000000000004E-3</v>
+      </c>
+      <c r="C150">
+        <v>0.81284999999999996</v>
+      </c>
+      <c r="D150">
+        <v>2020</v>
+      </c>
+      <c r="E150" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151">
+        <v>-0.44519999999999998</v>
+      </c>
+      <c r="C151">
+        <v>0.71608000000000005</v>
+      </c>
+      <c r="D151">
+        <v>2020</v>
+      </c>
+      <c r="E151" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152">
+        <v>8.5959999999999995E-2</v>
+      </c>
+      <c r="C152">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="D152">
+        <v>2020</v>
+      </c>
+      <c r="E152" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153">
+        <v>-3.8390000000000001E-2</v>
+      </c>
+      <c r="C153">
+        <v>0.32241999999999998</v>
+      </c>
+      <c r="D153">
+        <v>2020</v>
+      </c>
+      <c r="E153" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154">
+        <v>0.33028000000000002</v>
+      </c>
+      <c r="C154">
+        <v>0.18434</v>
+      </c>
+      <c r="D154">
+        <v>2020</v>
+      </c>
+      <c r="E154" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155">
+        <v>0.38766</v>
+      </c>
+      <c r="C155">
+        <v>-0.14308000000000001</v>
+      </c>
+      <c r="D155">
+        <v>2020</v>
+      </c>
+      <c r="E155" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156">
+        <v>0.17063</v>
+      </c>
+      <c r="C156">
+        <v>-0.26088</v>
+      </c>
+      <c r="D156">
+        <v>2020</v>
+      </c>
+      <c r="E156" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157">
+        <v>0.36398000000000003</v>
+      </c>
+      <c r="C157">
+        <v>0.62683</v>
+      </c>
+      <c r="D157">
+        <v>2020</v>
+      </c>
+      <c r="E157" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>78</v>
+      </c>
+      <c r="B158">
+        <v>0.10455</v>
+      </c>
+      <c r="C158">
+        <v>0.35616999999999999</v>
+      </c>
+      <c r="D158">
+        <v>2020</v>
+      </c>
+      <c r="E158" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159">
+        <v>0.22384999999999999</v>
+      </c>
+      <c r="C159">
+        <v>0.16422</v>
+      </c>
+      <c r="D159">
+        <v>2020</v>
+      </c>
+      <c r="E159" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160">
+        <v>0.13533000000000001</v>
+      </c>
+      <c r="C160">
+        <v>7.9729999999999995E-2</v>
+      </c>
+      <c r="D160">
+        <v>2020</v>
+      </c>
+      <c r="E160" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="C161">
+        <v>-0.14624999999999999</v>
+      </c>
+      <c r="D161">
+        <v>2020</v>
+      </c>
+      <c r="E161" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="C162">
+        <v>0.36015000000000003</v>
+      </c>
+      <c r="D162">
+        <v>2020</v>
+      </c>
+      <c r="E162" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163">
+        <v>-4.7399999999999998E-2</v>
+      </c>
+      <c r="C163">
+        <v>-1.1329899999999999</v>
+      </c>
+      <c r="D163">
+        <v>2020</v>
+      </c>
+      <c r="E163" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164">
+        <v>-9.1240000000000002E-2</v>
+      </c>
+      <c r="C164">
+        <v>-0.52148000000000005</v>
+      </c>
+      <c r="D164">
+        <v>2020</v>
+      </c>
+      <c r="E164" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165">
+        <v>-9.5850000000000005E-2</v>
+      </c>
+      <c r="C165">
+        <v>-0.89122999999999997</v>
+      </c>
+      <c r="D165">
+        <v>2020</v>
+      </c>
+      <c r="E165" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166">
+        <v>6.7150000000000001E-2</v>
+      </c>
+      <c r="C166">
+        <v>-1.10195</v>
+      </c>
+      <c r="D166">
+        <v>2020</v>
+      </c>
+      <c r="E166" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>87</v>
+      </c>
+      <c r="B167">
+        <v>0.87309000000000003</v>
+      </c>
+      <c r="C167">
+        <v>0.39206999999999997</v>
+      </c>
+      <c r="D167">
+        <v>2020</v>
+      </c>
+      <c r="E167" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168">
+        <v>1.2503599999999999</v>
+      </c>
+      <c r="C168">
+        <v>0.47556999999999999</v>
+      </c>
+      <c r="D168">
+        <v>2020</v>
+      </c>
+      <c r="E168" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169">
+        <v>0.65308999999999995</v>
+      </c>
+      <c r="C169">
+        <v>0.56744000000000006</v>
+      </c>
+      <c r="D169">
+        <v>2020</v>
+      </c>
+      <c r="E169" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170">
+        <v>-0.24071000000000001</v>
+      </c>
+      <c r="C170">
+        <v>-0.92459000000000002</v>
+      </c>
+      <c r="D170">
+        <v>2020</v>
+      </c>
+      <c r="E170" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>91</v>
+      </c>
+      <c r="B171">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="C171">
+        <v>0.45039000000000001</v>
+      </c>
+      <c r="D171">
+        <v>2020</v>
+      </c>
+      <c r="E171" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>92</v>
+      </c>
+      <c r="B172">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="C172">
+        <v>0.71714</v>
+      </c>
+      <c r="D172">
+        <v>2020</v>
+      </c>
+      <c r="E172" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>93</v>
+      </c>
+      <c r="B173">
+        <v>0.3115</v>
+      </c>
+      <c r="C173">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="D173">
+        <v>2020</v>
+      </c>
+      <c r="E173" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B174">
+        <v>0.29122999999999999</v>
+      </c>
+      <c r="C174">
+        <v>0.23194999999999999</v>
+      </c>
+      <c r="D174">
+        <v>2020</v>
+      </c>
+      <c r="E174" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175">
+        <v>0.16375999999999999</v>
+      </c>
+      <c r="C175">
+        <v>0.61882999999999999</v>
+      </c>
+      <c r="D175">
+        <v>2020</v>
+      </c>
+      <c r="E175" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176">
+        <v>0.14893000000000001</v>
+      </c>
+      <c r="C176">
+        <v>0.75088999999999995</v>
+      </c>
+      <c r="D176">
+        <v>2020</v>
+      </c>
+      <c r="E176" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>97</v>
+      </c>
+      <c r="B177">
+        <v>0.22191</v>
+      </c>
+      <c r="C177">
+        <v>0.60216999999999998</v>
+      </c>
+      <c r="D177">
+        <v>2020</v>
+      </c>
+      <c r="E177" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>98</v>
+      </c>
+      <c r="B178">
+        <v>-0.16355</v>
+      </c>
+      <c r="C178">
+        <v>-0.51751000000000003</v>
+      </c>
+      <c r="D178">
+        <v>2020</v>
+      </c>
+      <c r="E178" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>99</v>
+      </c>
+      <c r="B179">
+        <v>0.17868999999999999</v>
+      </c>
+      <c r="C179">
+        <v>-8.2239999999999994E-2</v>
+      </c>
+      <c r="D179">
+        <v>2020</v>
+      </c>
+      <c r="E179" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>100</v>
+      </c>
+      <c r="B180">
+        <v>0.57101000000000002</v>
+      </c>
+      <c r="C180">
+        <v>0.51029000000000002</v>
+      </c>
+      <c r="D180">
+        <v>2020</v>
+      </c>
+      <c r="E180" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>101</v>
+      </c>
+      <c r="B181">
+        <v>0.26605000000000001</v>
+      </c>
+      <c r="C181">
+        <v>0.24406</v>
+      </c>
+      <c r="D181">
+        <v>2020</v>
+      </c>
+      <c r="E181" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>102</v>
+      </c>
+      <c r="B182">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="C182">
+        <v>-5.9020000000000003E-2</v>
+      </c>
+      <c r="D182">
+        <v>2020</v>
+      </c>
+      <c r="E182" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>103</v>
+      </c>
+      <c r="B183">
+        <v>0.35636000000000001</v>
+      </c>
+      <c r="C183">
+        <v>0.36083999999999999</v>
+      </c>
+      <c r="D183">
+        <v>2020</v>
+      </c>
+      <c r="E183" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>104</v>
+      </c>
+      <c r="B184">
+        <v>-0.27950000000000003</v>
+      </c>
+      <c r="C184">
+        <v>-0.6835</v>
+      </c>
+      <c r="D184">
+        <v>2020</v>
+      </c>
+      <c r="E184" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>105</v>
+      </c>
+      <c r="B185">
+        <v>-0.2036</v>
+      </c>
+      <c r="C185">
+        <v>0.51022000000000001</v>
+      </c>
+      <c r="D185">
+        <v>2020</v>
+      </c>
+      <c r="E185" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>106</v>
+      </c>
+      <c r="B186">
+        <v>0.75602000000000003</v>
+      </c>
+      <c r="C186">
+        <v>3.2410000000000001E-2</v>
+      </c>
+      <c r="D186">
+        <v>2020</v>
+      </c>
+      <c r="E186" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>107</v>
+      </c>
+      <c r="B187">
+        <v>0.62978000000000001</v>
+      </c>
+      <c r="C187">
+        <v>-0.35782000000000003</v>
+      </c>
+      <c r="D187">
+        <v>2020</v>
+      </c>
+      <c r="E187" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>108</v>
+      </c>
+      <c r="B188">
+        <v>0.61580999999999997</v>
+      </c>
+      <c r="C188">
+        <v>0.12175</v>
+      </c>
+      <c r="D188">
+        <v>2020</v>
+      </c>
+      <c r="E188" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>109</v>
+      </c>
+      <c r="B189">
+        <v>0.32495000000000002</v>
+      </c>
+      <c r="C189">
+        <v>0.42613000000000001</v>
+      </c>
+      <c r="D189">
+        <v>2020</v>
+      </c>
+      <c r="E189" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>110</v>
+      </c>
+      <c r="B190">
+        <v>0.22711000000000001</v>
+      </c>
+      <c r="C190">
+        <v>0.45254</v>
+      </c>
+      <c r="D190">
+        <v>2020</v>
+      </c>
+      <c r="E190" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B191">
+        <v>0.47736000000000001</v>
+      </c>
+      <c r="C191">
+        <v>1.261E-2</v>
+      </c>
+      <c r="D191">
+        <v>2020</v>
+      </c>
+      <c r="E191" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>112</v>
+      </c>
+      <c r="B192">
+        <v>0.22541</v>
+      </c>
+      <c r="C192">
+        <v>0.29343999999999998</v>
+      </c>
+      <c r="D192">
+        <v>2020</v>
+      </c>
+      <c r="E192" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>113</v>
+      </c>
+      <c r="B193">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C193">
+        <v>0.19564000000000001</v>
+      </c>
+      <c r="D193">
+        <v>2020</v>
+      </c>
+      <c r="E193" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>114</v>
+      </c>
+      <c r="B194">
+        <v>0.35487000000000002</v>
+      </c>
+      <c r="C194">
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="D194">
+        <v>2020</v>
+      </c>
+      <c r="E194" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>115</v>
+      </c>
+      <c r="B195">
+        <v>0.27217999999999998</v>
+      </c>
+      <c r="C195">
+        <v>-0.73377999999999999</v>
+      </c>
+      <c r="D195">
+        <v>2020</v>
+      </c>
+      <c r="E195" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>116</v>
+      </c>
+      <c r="B196">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="C196">
+        <v>-0.11021</v>
+      </c>
+      <c r="D196">
+        <v>2020</v>
+      </c>
+      <c r="E196" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>117</v>
+      </c>
+      <c r="B197">
+        <v>0.13395000000000001</v>
+      </c>
+      <c r="C197">
+        <v>0.53481999999999996</v>
+      </c>
+      <c r="D197">
+        <v>2020</v>
+      </c>
+      <c r="E197" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>118</v>
+      </c>
+      <c r="B198">
+        <v>0.83196999999999999</v>
+      </c>
+      <c r="C198">
+        <v>-0.70528000000000002</v>
+      </c>
+      <c r="D198">
+        <v>2020</v>
+      </c>
+      <c r="E198" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/round bald datas/2020-2022 ordination.xlsx
+++ b/round bald datas/2020-2022 ordination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy\Desktop\boopz\thesis\round bald datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CC6C8-CDE9-42DB-8ABA-33D2E8C0F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB421F-2FB2-4F28-916B-AE15507882C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2022all" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="permanova vege" sheetId="20" r:id="rId10"/>
     <sheet name="permanova envr" sheetId="19" r:id="rId11"/>
     <sheet name="NMS" sheetId="21" r:id="rId12"/>
+    <sheet name="seedbank" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="284">
   <si>
     <t>ASD</t>
   </si>
@@ -720,6 +721,186 @@
   <si>
     <t>Axis2</t>
   </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Rubus</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>rb2.3.23</t>
+  </si>
+  <si>
+    <t>rb3.5.23</t>
+  </si>
+  <si>
+    <t>rb4.18.23</t>
+  </si>
+  <si>
+    <t>rb1.11.23</t>
+  </si>
+  <si>
+    <t>rb1.10.23</t>
+  </si>
+  <si>
+    <t>rb3.4.23</t>
+  </si>
+  <si>
+    <t>rb1.9.23</t>
+  </si>
+  <si>
+    <t>rb1.1.23</t>
+  </si>
+  <si>
+    <t>rb2.9.23</t>
+  </si>
+  <si>
+    <t>rb2.7.23</t>
+  </si>
+  <si>
+    <t>rb4.16.23</t>
+  </si>
+  <si>
+    <t>rb2.8.23</t>
+  </si>
+  <si>
+    <t>rb4.17.23</t>
+  </si>
+  <si>
+    <t>rb4.8.23</t>
+  </si>
+  <si>
+    <t>rb4.13.23</t>
+  </si>
+  <si>
+    <t>rb4.25.23</t>
+  </si>
+  <si>
+    <t>rb2.16.23</t>
+  </si>
+  <si>
+    <t>rb2.12.23</t>
+  </si>
+  <si>
+    <t>rb1.18.23</t>
+  </si>
+  <si>
+    <t>rb3.23.23</t>
+  </si>
+  <si>
+    <t>rb.3.25.23</t>
+  </si>
+  <si>
+    <t>rb1.21.23</t>
+  </si>
+  <si>
+    <t>rb2.14.23</t>
+  </si>
+  <si>
+    <t>rb3.12.23</t>
+  </si>
+  <si>
+    <t>rb2.20.23</t>
+  </si>
+  <si>
+    <t>rb4.27.23</t>
+  </si>
+  <si>
+    <t>rb2.18.23</t>
+  </si>
+  <si>
+    <t>rb4.30.23</t>
+  </si>
+  <si>
+    <t>rb2.15.23</t>
+  </si>
+  <si>
+    <t>rb1.21.22</t>
+  </si>
+  <si>
+    <t>rb1.22.22</t>
+  </si>
+  <si>
+    <t>rb2.14.22</t>
+  </si>
+  <si>
+    <t>rb2.20.22</t>
+  </si>
+  <si>
+    <t>rb4.24.22</t>
+  </si>
+  <si>
+    <t>rb4.30.22</t>
+  </si>
+  <si>
+    <t>rb1.13.22</t>
+  </si>
+  <si>
+    <t>rb1.16.22</t>
+  </si>
+  <si>
+    <t>rb2.16.22</t>
+  </si>
+  <si>
+    <t>rb3.8.22</t>
+  </si>
+  <si>
+    <t>rb3.10.22</t>
+  </si>
+  <si>
+    <t>rb3.23.22</t>
+  </si>
+  <si>
+    <t>rb2.7.22</t>
+  </si>
+  <si>
+    <t>rb2.8.22</t>
+  </si>
+  <si>
+    <t>rb4.8.22</t>
+  </si>
+  <si>
+    <t>rb4.13.22</t>
+  </si>
+  <si>
+    <t>rb4.16.22</t>
+  </si>
+  <si>
+    <t>rb4.17.22</t>
+  </si>
+  <si>
+    <t>rb1.6.22</t>
+  </si>
+  <si>
+    <t>rb1.7.22</t>
+  </si>
+  <si>
+    <t>rb1.10.22</t>
+  </si>
+  <si>
+    <t>rb3.4.22</t>
+  </si>
+  <si>
+    <t>rb3.7.22</t>
+  </si>
+  <si>
+    <t>rb4.18.22</t>
+  </si>
+  <si>
+    <t>plots</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
 </sst>
 </file>
 
@@ -728,7 +909,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +945,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -793,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -827,6 +1015,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17482,7 +17694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBD57A1-069A-4664-B229-E6B75F54848A}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -20852,6 +21064,1011 @@
       </c>
       <c r="E198" s="15">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AE9EE-A368-4B60-A9A9-1018D65D2675}">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="19">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="19">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="19">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="19">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="19">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="19">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="24">
+        <v>1</v>
+      </c>
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="24">
+        <v>1</v>
+      </c>
+      <c r="C35" s="25">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0</v>
+      </c>
+      <c r="C36" s="25">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="24">
+        <v>1</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0</v>
+      </c>
+      <c r="C38" s="25">
+        <v>3</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="24">
+        <v>1</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="24">
+        <v>2</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="24">
+        <v>3</v>
+      </c>
+      <c r="C41" s="25">
+        <v>3</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>1</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="24">
+        <v>1</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0</v>
+      </c>
+      <c r="D45" s="25">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="24">
+        <v>0</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="24">
+        <v>1</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="24">
+        <v>0</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="24">
+        <v>1</v>
+      </c>
+      <c r="C49" s="25">
+        <v>3</v>
+      </c>
+      <c r="D49" s="25">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0</v>
+      </c>
+      <c r="D50" s="25">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="24">
+        <v>1</v>
+      </c>
+      <c r="C51" s="25">
+        <v>3</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="24">
+        <v>0</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+      <c r="D52" s="25">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="24">
+        <v>0</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0</v>
+      </c>
+      <c r="D53" s="25">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="24">
+        <v>0</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="25">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="24">
+        <v>0</v>
+      </c>
+      <c r="C55" s="25">
+        <v>1</v>
+      </c>
+      <c r="D55" s="25">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="24">
+        <v>0</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="24">
+        <v>1</v>
+      </c>
+      <c r="C57" s="25">
+        <v>0</v>
+      </c>
+      <c r="D57" s="25">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20863,8 +22080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32778949-EFB7-46FA-9FF9-5F98BCA473CC}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/round bald datas/2020-2022 ordination.xlsx
+++ b/round bald datas/2020-2022 ordination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhi\OneDrive\Desktop\boopz\thesis\round bald datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB421F-2FB2-4F28-916B-AE15507882C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A467706-9E9D-423A-AE2C-DD327CF7FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="12" xr2:uid="{B02362C4-DD69-4BEB-8D5A-A99D2FA40622}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2022all" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="permanova vege" sheetId="20" r:id="rId10"/>
     <sheet name="permanova envr" sheetId="19" r:id="rId11"/>
     <sheet name="NMS" sheetId="21" r:id="rId12"/>
-    <sheet name="seedbank" sheetId="22" r:id="rId13"/>
+    <sheet name="seedbank (2)" sheetId="23" r:id="rId13"/>
+    <sheet name="seedbank" sheetId="22" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="264">
   <si>
     <t>ASD</t>
   </si>
@@ -746,21 +747,6 @@
     <t>rb4.18.23</t>
   </si>
   <si>
-    <t>rb1.11.23</t>
-  </si>
-  <si>
-    <t>rb1.10.23</t>
-  </si>
-  <si>
-    <t>rb3.4.23</t>
-  </si>
-  <si>
-    <t>rb1.9.23</t>
-  </si>
-  <si>
-    <t>rb1.1.23</t>
-  </si>
-  <si>
     <t>rb2.9.23</t>
   </si>
   <si>
@@ -776,15 +762,6 @@
     <t>rb4.17.23</t>
   </si>
   <si>
-    <t>rb4.8.23</t>
-  </si>
-  <si>
-    <t>rb4.13.23</t>
-  </si>
-  <si>
-    <t>rb4.25.23</t>
-  </si>
-  <si>
     <t>rb2.16.23</t>
   </si>
   <si>
@@ -794,19 +771,7 @@
     <t>rb1.18.23</t>
   </si>
   <si>
-    <t>rb3.23.23</t>
-  </si>
-  <si>
-    <t>rb.3.25.23</t>
-  </si>
-  <si>
     <t>rb1.21.23</t>
-  </si>
-  <si>
-    <t>rb2.14.23</t>
-  </si>
-  <si>
-    <t>rb3.12.23</t>
   </si>
   <si>
     <t>rb2.20.23</t>
@@ -815,13 +780,7 @@
     <t>rb4.27.23</t>
   </si>
   <si>
-    <t>rb2.18.23</t>
-  </si>
-  <si>
     <t>rb4.30.23</t>
-  </si>
-  <si>
-    <t>rb2.15.23</t>
   </si>
   <si>
     <t>rb1.21.22</t>
@@ -860,9 +819,6 @@
     <t>rb3.23.22</t>
   </si>
   <si>
-    <t>rb2.7.22</t>
-  </si>
-  <si>
     <t>rb2.8.22</t>
   </si>
   <si>
@@ -872,25 +828,10 @@
     <t>rb4.13.22</t>
   </si>
   <si>
-    <t>rb4.16.22</t>
-  </si>
-  <si>
     <t>rb4.17.22</t>
   </si>
   <si>
-    <t>rb1.6.22</t>
-  </si>
-  <si>
-    <t>rb1.7.22</t>
-  </si>
-  <si>
-    <t>rb1.10.22</t>
-  </si>
-  <si>
     <t>rb3.4.22</t>
-  </si>
-  <si>
-    <t>rb3.7.22</t>
   </si>
   <si>
     <t>rb4.18.22</t>
@@ -981,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -1027,9 +968,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -21072,11 +21010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AE9EE-A368-4B60-A9A9-1018D65D2675}">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C2A6C7-CA8E-4B68-980F-3057C21636EE}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21091,10 +21029,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -21102,7 +21040,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -21196,14 +21134,14 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
+      <c r="B8" s="19">
+        <v>2</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -21214,14 +21152,14 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="19">
         <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -21232,17 +21170,17 @@
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="19">
         <v>0</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -21253,11 +21191,11 @@
       <c r="A11" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="19">
         <v>0</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -21268,14 +21206,14 @@
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
+      <c r="B12" s="19">
+        <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -21286,14 +21224,14 @@
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>237</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -21304,14 +21242,14 @@
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>238</v>
       </c>
       <c r="B14" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -21326,13 +21264,13 @@
         <v>239</v>
       </c>
       <c r="B15" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -21340,14 +21278,14 @@
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>240</v>
       </c>
       <c r="B16" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -21358,14 +21296,14 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>241</v>
       </c>
       <c r="B17" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -21376,14 +21314,14 @@
       <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="19">
-        <v>0</v>
+      <c r="B18" s="8">
+        <v>2</v>
       </c>
       <c r="C18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -21398,7 +21336,7 @@
         <v>243</v>
       </c>
       <c r="B19" s="19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -21412,663 +21350,1064 @@
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
         <v>0</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="23">
         <v>2</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="19">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="19">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="23">
         <v>3</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="19">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="19">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="24">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24">
         <v>0</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="19">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
+      <c r="B28" s="23">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="23">
+        <v>0</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="23">
+        <v>0</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="23">
+        <v>0</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1</v>
+      </c>
+      <c r="C34" s="24">
+        <v>3</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24">
+        <v>3</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AE9EE-A368-4B60-A9A9-1018D65D2675}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="19">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="19">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="23">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="23">
+        <v>3</v>
+      </c>
+      <c r="C27" s="24">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="23">
+        <v>0</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
         <v>0</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
         <v>2</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
+      <c r="B31" s="23">
+        <v>0</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="19">
-        <v>15</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="19">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="23">
+        <v>0</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24">
         <v>0</v>
       </c>
       <c r="E33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="24">
-        <v>1</v>
-      </c>
-      <c r="C34" s="25">
-        <v>1</v>
-      </c>
-      <c r="D34" s="25">
-        <v>0</v>
+      <c r="B34" s="23">
+        <v>1</v>
+      </c>
+      <c r="C34" s="24">
+        <v>3</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="24">
-        <v>1</v>
-      </c>
-      <c r="C35" s="25">
-        <v>1</v>
-      </c>
-      <c r="D35" s="25">
-        <v>1</v>
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24">
+        <v>3</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
       </c>
       <c r="E35" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="24">
-        <v>0</v>
-      </c>
-      <c r="C36" s="25">
-        <v>1</v>
-      </c>
-      <c r="D36" s="25">
+      <c r="B36" s="23">
+        <v>0</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
         <v>0</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="24">
-        <v>1</v>
-      </c>
-      <c r="C37" s="25">
-        <v>1</v>
-      </c>
-      <c r="D37" s="25">
-        <v>1</v>
+      <c r="B37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
       </c>
       <c r="E37" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B38" s="24">
-        <v>0</v>
-      </c>
-      <c r="C38" s="25">
-        <v>3</v>
-      </c>
-      <c r="D38" s="25">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="B39" s="24">
-        <v>1</v>
-      </c>
-      <c r="C39" s="25">
-        <v>0</v>
-      </c>
-      <c r="D39" s="25">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B40" s="24">
-        <v>2</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0</v>
-      </c>
-      <c r="D40" s="25">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B41" s="24">
-        <v>3</v>
-      </c>
-      <c r="C41" s="25">
-        <v>3</v>
-      </c>
-      <c r="D41" s="25">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B42" s="24">
-        <v>0</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0</v>
-      </c>
-      <c r="D42" s="25">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B43" s="24">
-        <v>0</v>
-      </c>
-      <c r="C43" s="25">
-        <v>1</v>
-      </c>
-      <c r="D43" s="25">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" s="24">
-        <v>1</v>
-      </c>
-      <c r="C44" s="25">
-        <v>0</v>
-      </c>
-      <c r="D44" s="25">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45" s="24">
-        <v>0</v>
-      </c>
-      <c r="C45" s="25">
-        <v>0</v>
-      </c>
-      <c r="D45" s="25">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B46" s="24">
-        <v>0</v>
-      </c>
-      <c r="C46" s="25">
-        <v>0</v>
-      </c>
-      <c r="D46" s="25">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" s="24">
-        <v>1</v>
-      </c>
-      <c r="C47" s="25">
-        <v>0</v>
-      </c>
-      <c r="D47" s="25">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="24">
-        <v>0</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0</v>
-      </c>
-      <c r="D48" s="25">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B49" s="24">
-        <v>1</v>
-      </c>
-      <c r="C49" s="25">
-        <v>3</v>
-      </c>
-      <c r="D49" s="25">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" s="24">
-        <v>0</v>
-      </c>
-      <c r="C50" s="25">
-        <v>0</v>
-      </c>
-      <c r="D50" s="25">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B51" s="24">
-        <v>1</v>
-      </c>
-      <c r="C51" s="25">
-        <v>3</v>
-      </c>
-      <c r="D51" s="25">
-        <v>0</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B52" s="24">
-        <v>0</v>
-      </c>
-      <c r="C52" s="25">
-        <v>0</v>
-      </c>
-      <c r="D52" s="25">
-        <v>0</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B53" s="24">
-        <v>0</v>
-      </c>
-      <c r="C53" s="25">
-        <v>0</v>
-      </c>
-      <c r="D53" s="25">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="24">
-        <v>0</v>
-      </c>
-      <c r="C54" s="25">
-        <v>0</v>
-      </c>
-      <c r="D54" s="25">
-        <v>0</v>
-      </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="24">
-        <v>0</v>
-      </c>
-      <c r="C55" s="25">
-        <v>1</v>
-      </c>
-      <c r="D55" s="25">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="24">
-        <v>0</v>
-      </c>
-      <c r="C56" s="25">
-        <v>0</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" s="24">
-        <v>1</v>
-      </c>
-      <c r="C57" s="25">
-        <v>0</v>
-      </c>
-      <c r="D57" s="25">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
+      <c r="F37" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22080,7 +22419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32778949-EFB7-46FA-9FF9-5F98BCA473CC}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
